--- a/results.xlsx
+++ b/results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\city-ds-final-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D4C8F9-07E9-4B07-9D3C-E2B295EFF010}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B72AB11-3BE5-4AC3-B361-5136EC550432}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -404,7 +404,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C9" activeCellId="4" sqref="C2 C3 C5 C6 C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,6 +488,9 @@
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C7">
+        <v>75.5</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -503,6 +506,9 @@
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="C9">
+        <v>97.65</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
